--- a/Personal/xueyu/plan/week8-2018-03-19.xlsx
+++ b/Personal/xueyu/plan/week8-2018-03-19.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23E6D21-14F2-42EB-90C5-7FC0B01BB501}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,12 +345,44 @@
     <t>今天下午定好闹铃好好干</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学看一节以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词20个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学看完第九章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词背完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练练数学题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,12 +696,150 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,141 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1089,21 +1125,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1115,24 +1151,24 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1155,11 +1191,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="49">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="46">
         <v>43178</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="79" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1171,16 +1207,16 @@
         <v>17</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="85">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="81"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1190,12 +1226,12 @@
         <v>17</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="48"/>
-      <c r="B5" s="47" t="s">
+      <c r="H4" s="49"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="80"/>
+      <c r="B5" s="79" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1207,12 +1243,12 @@
         <v>17</v>
       </c>
       <c r="G5" s="30"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="86"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1222,11 +1258,11 @@
         <v>18</v>
       </c>
       <c r="G6" s="30"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="86"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="80"/>
       <c r="B7" s="33" t="s">
         <v>14</v>
       </c>
@@ -1241,14 +1277,14 @@
       <c r="G7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="59">
+      <c r="H7" s="49"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="63">
         <v>43179</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="65" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1260,16 +1296,16 @@
         <v>30</v>
       </c>
       <c r="G8" s="31"/>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="62">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1281,12 +1317,12 @@
         <v>30</v>
       </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="64"/>
+      <c r="B10" s="68" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1298,12 +1334,12 @@
         <v>30</v>
       </c>
       <c r="G10" s="31"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="58"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="60"/>
-      <c r="B11" s="63"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="64"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1313,12 +1349,12 @@
         <v>32</v>
       </c>
       <c r="G11" s="31"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="60"/>
-      <c r="B12" s="62" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="64"/>
+      <c r="B12" s="68" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1332,12 +1368,12 @@
       <c r="G12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="60"/>
-      <c r="B13" s="64"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="64"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1347,11 +1383,11 @@
         <v>30</v>
       </c>
       <c r="G13" s="31"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="77">
+      <c r="H13" s="73"/>
+      <c r="I13" s="62"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44">
         <v>43180</v>
       </c>
       <c r="B14" s="28"/>
@@ -1361,12 +1397,12 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="75">
+      <c r="I14" s="42">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="78"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
       <c r="B15" s="34" t="s">
         <v>34</v>
       </c>
@@ -1382,10 +1418,10 @@
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="76"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="78"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
       <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
@@ -1401,13 +1437,13 @@
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="76"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="39">
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="66">
         <v>43181</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1419,16 +1455,16 @@
         <v>58</v>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="74" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="41">
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="39"/>
-      <c r="B18" s="69"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
@@ -1438,12 +1474,12 @@
         <v>57</v>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="41"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="39"/>
-      <c r="B19" s="70"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
@@ -1453,12 +1489,12 @@
         <v>59</v>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="72"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="41"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39"/>
-      <c r="B20" s="68" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="66"/>
+      <c r="B20" s="53" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1474,12 +1510,12 @@
         <v>61</v>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="41"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40"/>
-      <c r="B21" s="69"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1491,12 +1527,12 @@
         <v>61</v>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="41"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="40"/>
-      <c r="B22" s="69"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="67"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
@@ -1508,12 +1544,12 @@
         <v>61</v>
       </c>
       <c r="G22" s="23"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="41"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="40"/>
-      <c r="B23" s="70"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="6" t="s">
         <v>47</v>
       </c>
@@ -1525,11 +1561,11 @@
         <v>61</v>
       </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="41"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="67"/>
       <c r="B24" s="35" t="s">
         <v>46</v>
       </c>
@@ -1544,14 +1580,14 @@
         <v>61</v>
       </c>
       <c r="G24" s="23"/>
-      <c r="H24" s="73"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="41"/>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A25" s="49">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46">
         <v>43182</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1565,14 +1601,14 @@
       <c r="G25" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="81"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
-      <c r="B26" s="74"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
@@ -1582,12 +1618,12 @@
         <v>73</v>
       </c>
       <c r="G26" s="38"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="82"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
-      <c r="B27" s="84" t="s">
+      <c r="H26" s="49"/>
+      <c r="I26" s="51"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1598,15 +1634,15 @@
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="87" t="s">
+      <c r="G27" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="82"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
-      <c r="B28" s="86"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="7" t="s">
         <v>66</v>
       </c>
@@ -1615,13 +1651,13 @@
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="82"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
-      <c r="B29" s="86"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="51"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="7" t="s">
         <v>67</v>
       </c>
@@ -1630,13 +1666,13 @@
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="82"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
-      <c r="B30" s="85"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="51"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="7" t="s">
         <v>74</v>
       </c>
@@ -1645,12 +1681,12 @@
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="82"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="51"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
       <c r="B31" s="36" t="s">
         <v>68</v>
       </c>
@@ -1661,87 +1697,105 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="83"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="9"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="66">
+        <v>43183</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="42"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="9"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="43"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="9"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="67"/>
+      <c r="B34" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="D34" s="32"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="43"/>
+      <c r="H34" s="89"/>
       <c r="I34" s="41"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="9"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="67"/>
+      <c r="B35" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="43"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="41"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="6"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="43"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="41"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="41"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1752,7 +1806,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1763,7 +1817,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1774,7 +1828,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1785,7 +1839,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1796,7 +1850,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1807,7 +1861,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1818,7 +1872,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1829,7 +1883,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1840,7 +1894,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1851,7 +1905,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1862,7 +1916,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1873,30 +1927,29 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="H17:H24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="I17:I24"/>
     <mergeCell ref="I14:I16"/>
@@ -1907,28 +1960,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="G27:G30"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="H17:H24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="H32:H38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/week8-2018-03-19.xlsx
+++ b/Personal/xueyu/plan/week8-2018-03-19.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23E6D21-14F2-42EB-90C5-7FC0B01BB501}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9BE43-8431-4BC8-BF5A-3847E293DFD3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,29 @@
   </si>
   <si>
     <t>练练数学题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个有点想多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学完成第九章</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上看电影环太平洋去了，没看完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1136,7 +1159,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1712,10 +1735,16 @@
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="F32" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="G32" s="23"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="41"/>
+      <c r="H32" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="41">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
@@ -1725,7 +1754,9 @@
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="G33" s="23"/>
       <c r="H33" s="89"/>
       <c r="I33" s="41"/>
@@ -1740,8 +1771,12 @@
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="F34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="H34" s="89"/>
       <c r="I34" s="41"/>
     </row>
@@ -1755,7 +1790,9 @@
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="G35" s="23"/>
       <c r="H35" s="89"/>
       <c r="I35" s="41"/>
@@ -1768,8 +1805,12 @@
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="H36" s="90"/>
       <c r="I36" s="41"/>
     </row>
